--- a/backup/helpdesk-project-unencrypted/DoorCounts2022_1_1-17-2023/door-counts.xlsx
+++ b/backup/helpdesk-project-unencrypted/DoorCounts2022_1_1-17-2023/door-counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LEARNING\Programming\Portfolio\helpdesk-tickets\backup\helpdesk-project-unencrypted\DoorCounts2022_1_1-17-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E45C33-878C-4251-AB86-8F1B54AA3415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE20ED96-5168-400C-905A-AE66AF14273A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +506,12 @@
       <c r="E2">
         <v>3624</v>
       </c>
+      <c r="F2">
+        <v>4321</v>
+      </c>
+      <c r="G2">
+        <v>3167</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -523,6 +529,12 @@
       <c r="E3">
         <v>7165</v>
       </c>
+      <c r="F3">
+        <v>7755</v>
+      </c>
+      <c r="G3">
+        <v>7747</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -540,6 +552,12 @@
       <c r="E4">
         <v>7968</v>
       </c>
+      <c r="F4">
+        <v>7905</v>
+      </c>
+      <c r="G4">
+        <v>9551</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -557,6 +575,12 @@
       <c r="E5">
         <v>6810</v>
       </c>
+      <c r="F5">
+        <v>8767</v>
+      </c>
+      <c r="G5">
+        <v>7224</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -574,6 +598,12 @@
       <c r="E6">
         <v>7890</v>
       </c>
+      <c r="F6">
+        <v>9017</v>
+      </c>
+      <c r="G6">
+        <v>9908</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -591,6 +621,12 @@
       <c r="E7">
         <v>3950</v>
       </c>
+      <c r="F7">
+        <v>4972</v>
+      </c>
+      <c r="G7">
+        <v>4357</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -608,6 +644,12 @@
       <c r="E8">
         <v>4499</v>
       </c>
+      <c r="F8">
+        <v>5005</v>
+      </c>
+      <c r="G8">
+        <v>3919</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -625,6 +667,12 @@
       <c r="E9">
         <v>22665</v>
       </c>
+      <c r="F9">
+        <v>22429</v>
+      </c>
+      <c r="G9">
+        <v>25355</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -642,6 +690,12 @@
       <c r="E10">
         <v>5135</v>
       </c>
+      <c r="F10">
+        <v>5663</v>
+      </c>
+      <c r="G10">
+        <v>7004</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -659,6 +713,12 @@
       <c r="E11">
         <v>6582</v>
       </c>
+      <c r="F11">
+        <v>6966</v>
+      </c>
+      <c r="G11">
+        <v>8725</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -676,6 +736,12 @@
       <c r="E12">
         <v>9149</v>
       </c>
+      <c r="F12">
+        <v>9745</v>
+      </c>
+      <c r="G12">
+        <v>10563</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -693,6 +759,12 @@
       <c r="E13">
         <v>3198</v>
       </c>
+      <c r="F13">
+        <v>3633</v>
+      </c>
+      <c r="G13">
+        <v>3820</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -710,6 +782,12 @@
       <c r="E14">
         <v>5448</v>
       </c>
+      <c r="F14">
+        <v>5550</v>
+      </c>
+      <c r="G14">
+        <v>6499</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -727,6 +805,12 @@
       <c r="E15">
         <v>8928</v>
       </c>
+      <c r="F15">
+        <v>8500</v>
+      </c>
+      <c r="G15">
+        <v>9543</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -744,8 +828,14 @@
       <c r="E16">
         <v>3912</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>4804</v>
+      </c>
+      <c r="G16">
+        <v>5613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -761,8 +851,14 @@
       <c r="E17">
         <v>6446</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>6314</v>
+      </c>
+      <c r="G17">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -778,8 +874,14 @@
       <c r="E18">
         <v>2890</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2858</v>
+      </c>
+      <c r="G18">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -795,8 +897,14 @@
       <c r="E19">
         <v>6762</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>7332</v>
+      </c>
+      <c r="G19">
+        <v>7547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -812,8 +920,14 @@
       <c r="E20">
         <v>5924</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>5953</v>
+      </c>
+      <c r="G20">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -828,6 +942,12 @@
       </c>
       <c r="E21">
         <v>9776</v>
+      </c>
+      <c r="F21">
+        <v>10582</v>
+      </c>
+      <c r="G21">
+        <v>10643</v>
       </c>
     </row>
   </sheetData>
